--- a/data/运算结果.xlsx
+++ b/data/运算结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A4131-A272-4BCE-9545-757F9B7C3FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F60324-FEA3-43E5-B257-838786245EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>优质阿姨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +102,57 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,25 +164,91 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="33" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
+    <cellStyle name="20% - 着色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
+    <cellStyle name="40% - 着色 2" xfId="5" builtinId="35"/>
+    <cellStyle name="60% - 着色 1" xfId="3" builtinId="32"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,10 +641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91534A80-6AF4-4CBC-A519-CA1E92AEFF56}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -542,260 +652,490 @@
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2.1319444444444443E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.471945711913766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.2777777777777777E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.47175055605015498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.6412037037037037E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.47175055605015498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>7.2800925925925915E-3</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.4532791298496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>8.3217592592592596E-3</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.4532791298496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>4.9652777777777777E-3</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.46626822778106403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5.0462962962962961E-3</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.46626822778106403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.2777777777777777E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.47175055605015498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D19" s="10">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D20" s="10">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4.9652777777777777E-3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.46626822778106403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="D21" s="13">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D22" s="13">
+        <v>4</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="F22" s="14">
         <v>5.0462962962962961E-3</v>
       </c>
-      <c r="G11" s="4">
-        <v>0.46626822778106403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G22" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/运算结果.xlsx
+++ b/data/运算结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F60324-FEA3-43E5-B257-838786245EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07740E-8D39-4586-BBBE-56AF22C733EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一问" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>优质阿姨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,15 +79,20 @@
     <t>时分秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>扩大时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +115,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +167,17 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,7 +188,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -184,8 +208,14 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,15 +271,56 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="33" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="2" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - 着色 3" xfId="6" builtinId="38"/>
     <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - 着色 2" xfId="5" builtinId="35"/>
     <cellStyle name="60% - 着色 1" xfId="3" builtinId="32"/>
+    <cellStyle name="60% - 着色 2" xfId="8" builtinId="36"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 2" xfId="7" builtinId="33"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,7 +609,9 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -561,76 +634,220 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1.3553240740740741E-2</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.58333221003312696</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="30">
+        <v>0</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1.5763888888888886E-2</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.51535050645139802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>4</v>
+      </c>
+      <c r="B10" s="30">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -641,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91534A80-6AF4-4CBC-A519-CA1E92AEFF56}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -652,12 +869,13 @@
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -673,14 +891,17 @@
       <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -696,12 +917,15 @@
       <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="21">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -717,12 +941,17 @@
       <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="21">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19">
+        <v>9.9270833333333322E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.48142971115018801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -738,12 +967,15 @@
       <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="22">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -759,14 +991,17 @@
       <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="22">
+        <v>3</v>
+      </c>
+      <c r="G5" s="16">
         <v>2.1319444444444443E-2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>0.471945711913766</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -782,14 +1017,17 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="23">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
         <v>1.2777777777777777E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>0.47175055605015498</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -805,14 +1043,17 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="23">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
         <v>1.6412037037037037E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>0.47175055605015498</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -828,14 +1069,17 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="24">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12">
         <v>7.2800925925925915E-3</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="11">
         <v>0.4532791298496</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -851,14 +1095,17 @@
       <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="24">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12">
         <v>8.3217592592592596E-3</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="11">
         <v>0.4532791298496</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -874,14 +1121,17 @@
       <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="25">
+        <v>3</v>
+      </c>
+      <c r="G10" s="14">
         <v>4.9652777777777777E-3</v>
       </c>
-      <c r="G10" s="15">
+      <c r="H10" s="15">
         <v>0.46626822778106403</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -897,14 +1147,17 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="25">
+        <v>3</v>
+      </c>
+      <c r="G11" s="14">
         <v>5.0462962962962961E-3</v>
       </c>
-      <c r="G11" s="15">
+      <c r="H11" s="15">
         <v>0.46626822778106403</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
@@ -920,14 +1173,17 @@
       <c r="E12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -943,12 +1199,15 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="21">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2</v>
       </c>
@@ -962,14 +1221,17 @@
         <v>4</v>
       </c>
       <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -985,12 +1247,15 @@
       <c r="E15" s="6">
         <v>0</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="22">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -1004,14 +1269,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F16" s="22">
+        <v>3</v>
+      </c>
+      <c r="G16" s="16">
+        <v>8.6689814814814817E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.47280726222380998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>5</v>
       </c>
@@ -1027,12 +1297,15 @@
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="23">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -1046,14 +1319,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F18" s="23">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.9131944444444446E-2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.47233120319682098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>7</v>
       </c>
@@ -1069,12 +1347,15 @@
       <c r="E19" s="10">
         <v>0</v>
       </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="24">
+        <v>3</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>8</v>
       </c>
@@ -1088,14 +1369,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="10">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F20" s="24">
+        <v>3</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>9</v>
       </c>
@@ -1111,12 +1395,15 @@
       <c r="E21" s="13">
         <v>0</v>
       </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="25">
+        <v>3</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>10</v>
       </c>
@@ -1130,12 +1417,15 @@
         <v>4</v>
       </c>
       <c r="E22" s="13">
-        <v>2</v>
-      </c>
-      <c r="F22" s="14">
+        <v>3</v>
+      </c>
+      <c r="F22" s="25">
+        <v>3</v>
+      </c>
+      <c r="G22" s="14">
         <v>5.0462962962962961E-3</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/运算结果.xlsx
+++ b/data/运算结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07740E-8D39-4586-BBBE-56AF22C733EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC7BAF-B9B4-4DFB-BF2D-7A790BDB4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一问" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
   <si>
     <t>优质阿姨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +308,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="3" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -616,25 +622,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -654,10 +660,12 @@
       <c r="E2" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11"/>
+      <c r="F2" s="12">
+        <v>7.4976851851851864E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.58706416415348195</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -675,10 +683,12 @@
       <c r="E3" s="13">
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14">
+        <v>1.7569444444444447E-2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.58448541599201798</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
@@ -719,10 +729,12 @@
       <c r="E5" s="30">
         <v>0</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="31"/>
+      <c r="F5" s="32">
+        <v>7.0717592592592594E-3</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.58012734296819801</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -740,8 +752,11 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
+      <c r="F6" s="33">
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.57601795438777603</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,10 +796,12 @@
       <c r="E8" s="13">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="15"/>
+      <c r="F8" s="14">
+        <v>2.988425925925926E-2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.52661022142857805</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
@@ -825,10 +842,12 @@
       <c r="E10" s="30">
         <v>0</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="31"/>
+      <c r="F10" s="32">
+        <v>7.1180555555555554E-3</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0.52325490219357496</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -846,8 +865,11 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
+      <c r="F11" s="33">
+        <v>4.2708333333333339E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.52425547909409098</v>
       </c>
     </row>
   </sheetData>
@@ -860,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91534A80-6AF4-4CBC-A519-CA1E92AEFF56}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1250,10 +1272,12 @@
       <c r="F15" s="22">
         <v>3</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7"/>
+      <c r="G15" s="16">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.47300245663748303</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1301,9 +1325,11 @@
         <v>3</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>2.4074074074074071E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.47214724254343798</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1351,9 +1377,11 @@
         <v>3</v>
       </c>
       <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11"/>
+        <v>1.6446759259259262E-2</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.47001017266832801</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -1375,9 +1403,11 @@
         <v>3</v>
       </c>
       <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11"/>
+        <v>2.3043981481481481E-2</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.46927669672416999</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -1399,9 +1429,11 @@
         <v>3</v>
       </c>
       <c r="G21" s="14">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15"/>
+        <v>6.782407407407408E-3</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.46902580836548602</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -1423,9 +1455,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="14">
-        <v>5.0462962962962961E-3</v>
-      </c>
-      <c r="H22" s="15"/>
+        <v>1.0787037037037038E-2</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0.469658960586749</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/运算结果.xlsx
+++ b/data/运算结果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC7BAF-B9B4-4DFB-BF2D-7A790BDB4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A0788-3572-48E7-A8C9-EF001BA39F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91534A80-6AF4-4CBC-A519-CA1E92AEFF56}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/运算结果.xlsx
+++ b/data/运算结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A0788-3572-48E7-A8C9-EF001BA39F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CF3ED-1F16-48C6-8353-54EBA808AEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>优质阿姨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,7 +607,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -775,10 +775,12 @@
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11"/>
+      <c r="F7" s="12">
+        <v>5.3611111111111109E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.58706416400000005</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -883,7 +885,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -942,10 +944,12 @@
       <c r="F2" s="21">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9"/>
+      <c r="G2" s="19">
+        <v>0.15006944444444445</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.48142971115018801</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -992,10 +996,12 @@
       <c r="F4" s="22">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7"/>
+      <c r="G4" s="16">
+        <v>2.5995370370370367E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.471945711913766</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -1248,10 +1254,12 @@
       <c r="F14" s="21">
         <v>3</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9"/>
+      <c r="G14" s="19">
+        <v>0.28740740740740739</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.484568860744995</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">

--- a/data/运算结果.xlsx
+++ b/data/运算结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CF3ED-1F16-48C6-8353-54EBA808AEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCD126C-D745-411C-A262-AA6A51DE12B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
   <si>
     <t>优质阿姨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>（5，5）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时分秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -885,7 +881,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -916,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1202,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>3</v>
@@ -1230,10 +1226,12 @@
       <c r="F13" s="21">
         <v>3</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="9"/>
+      <c r="G13" s="19">
+        <v>0.16114583333333332</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.484081290234534</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">

--- a/data/运算结果.xlsx
+++ b/data/运算结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCD126C-D745-411C-A262-AA6A51DE12B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D998B1-624B-431F-BCBD-07117DECFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -211,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,9 +223,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="33" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,18 +256,12 @@
     <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="33" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="33" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,6 +302,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="33" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,117 +625,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
         <v>7.4976851851851864E-2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>0.58706416415348195</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
         <v>1.7569444444444447E-2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>0.58448541599201798</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
         <v>1.3553240740740741E-2</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="26">
         <v>0.58333221003312696</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="30">
-        <v>0</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="27">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0</v>
-      </c>
-      <c r="F5" s="32">
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29">
         <v>7.0717592592592594E-3</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="28">
         <v>0.58012734296819801</v>
       </c>
     </row>
@@ -748,7 +755,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="30">
         <v>4.409722222222222E-3</v>
       </c>
       <c r="G6" s="2">
@@ -756,94 +763,94 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
         <v>5.3611111111111109E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>0.58706416400000005</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
         <v>2.988425925925926E-2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>0.52661022142857805</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <v>3</v>
-      </c>
-      <c r="B9" s="27">
+      <c r="A9" s="24">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24">
         <v>1</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
         <v>1.5763888888888886E-2</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="26">
         <v>0.51535050645139802</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="27">
         <v>4</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="27">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="32">
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
         <v>7.1180555555555554E-3</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="28">
         <v>0.52325490219357496</v>
       </c>
     </row>
@@ -863,7 +870,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="30">
         <v>4.2708333333333339E-3</v>
       </c>
       <c r="G11" s="2">
@@ -881,7 +888,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -889,139 +896,135 @@
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19">
-        <v>0.15006944444444445</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>3</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0.11784722222222221</v>
+      </c>
+      <c r="H2" s="8">
         <v>0.48142971115018801</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2</v>
-      </c>
-      <c r="F3" s="21">
-        <v>3</v>
-      </c>
-      <c r="G3" s="19">
-        <v>9.9270833333333322E-2</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.48142971115018801</v>
-      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>3</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <v>3</v>
-      </c>
-      <c r="G4" s="16">
-        <v>2.5995370370370367E-2</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>3</v>
+      </c>
+      <c r="G4" s="32">
+        <v>3.2939814814814811E-2</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.471945711913766</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22">
-        <v>3</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2.1319444444444443E-2</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>3</v>
+      </c>
+      <c r="G5" s="32">
+        <v>3.2442129629629633E-2</v>
+      </c>
+      <c r="H5" s="6">
         <v>0.471945711913766</v>
       </c>
     </row>
@@ -1041,13 +1044,13 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="23">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1.2777777777777777E-2</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="F6" s="20">
+        <v>3</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1.7974537037037035E-2</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.47175055605015498</v>
       </c>
     </row>
@@ -1067,247 +1070,243 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="23">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.6412037037037037E-2</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="F7" s="20">
+        <v>3</v>
+      </c>
+      <c r="G7" s="33">
+        <v>1.699074074074074E-2</v>
+      </c>
+      <c r="H7" s="4">
         <v>0.47175055605015498</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="24">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>7.2800925925925915E-3</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>3</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1.105324074074074E-2</v>
+      </c>
+      <c r="H8" s="10">
         <v>0.4532791298496</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="24">
-        <v>3</v>
-      </c>
-      <c r="G9" s="12">
-        <v>8.3217592592592596E-3</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3</v>
+      </c>
+      <c r="G9" s="34">
+        <v>1.0844907407407407E-2</v>
+      </c>
+      <c r="H9" s="10">
         <v>0.4532791298496</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>3</v>
-      </c>
-      <c r="G10" s="14">
-        <v>4.9652777777777777E-3</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>3</v>
+      </c>
+      <c r="G10" s="35">
+        <v>7.1990740740740739E-3</v>
+      </c>
+      <c r="H10" s="14">
         <v>0.46626822778106403</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2</v>
-      </c>
-      <c r="F11" s="25">
-        <v>3</v>
-      </c>
-      <c r="G11" s="14">
-        <v>5.0462962962962961E-3</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22">
+        <v>3</v>
+      </c>
+      <c r="G11" s="35">
+        <v>7.4305555555555548E-3</v>
+      </c>
+      <c r="H11" s="14">
         <v>0.46626822778106403</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>3</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0.16114583333333332</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0.13873842592592592</v>
+      </c>
+      <c r="H14" s="8">
         <v>0.484081290234534</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>2</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>3</v>
+      </c>
+      <c r="G15" s="32">
+        <v>3.4398148148148143E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.47300245663748303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="8">
-        <v>3</v>
-      </c>
-      <c r="F14" s="21">
-        <v>3</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0.28740740740740739</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.484568860744995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22">
-        <v>3</v>
-      </c>
-      <c r="G15" s="16">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.47300245663748303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3</v>
-      </c>
-      <c r="F16" s="22">
-        <v>3</v>
-      </c>
-      <c r="G16" s="16">
-        <v>8.6689814814814817E-2</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19">
+        <v>3</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0.11879629629629629</v>
+      </c>
+      <c r="H16" s="6">
         <v>0.47280726222380998</v>
       </c>
     </row>
@@ -1327,13 +1326,13 @@
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="23">
-        <v>3</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2.4074074074074071E-2</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="F17" s="20">
+        <v>3</v>
+      </c>
+      <c r="G17" s="33">
+        <v>2.6678240740740738E-2</v>
+      </c>
+      <c r="H17" s="4">
         <v>0.47214724254343798</v>
       </c>
     </row>
@@ -1353,122 +1352,123 @@
       <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="23">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4">
-        <v>2.9131944444444446E-2</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="F18" s="20">
+        <v>3</v>
+      </c>
+      <c r="G18" s="33">
+        <v>3.8414351851851852E-2</v>
+      </c>
+      <c r="H18" s="4">
         <v>0.47233120319682098</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>7</v>
       </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="10">
-        <v>3</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="24">
-        <v>3</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1.6446759259259262E-2</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>3</v>
+      </c>
+      <c r="G19" s="34">
+        <v>1.3344907407407408E-2</v>
+      </c>
+      <c r="H19" s="10">
         <v>0.47001017266832801</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>8</v>
       </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>4</v>
       </c>
-      <c r="E20" s="10">
-        <v>3</v>
-      </c>
-      <c r="F20" s="24">
-        <v>3</v>
-      </c>
-      <c r="G20" s="12">
-        <v>2.3043981481481481E-2</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="E20" s="9">
+        <v>3</v>
+      </c>
+      <c r="F20" s="21">
+        <v>3</v>
+      </c>
+      <c r="G20" s="34">
+        <v>2.1030092592592597E-2</v>
+      </c>
+      <c r="H20" s="10">
         <v>0.46927669672416999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>9</v>
       </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13">
-        <v>3</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>3</v>
-      </c>
-      <c r="G21" s="14">
-        <v>6.782407407407408E-3</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="D21" s="12">
+        <v>3</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <v>3</v>
+      </c>
+      <c r="G21" s="35">
+        <v>8.7847222222222233E-3</v>
+      </c>
+      <c r="H21" s="14">
         <v>0.46902580836548602</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>10</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>4</v>
       </c>
-      <c r="E22" s="13">
-        <v>3</v>
-      </c>
-      <c r="F22" s="25">
-        <v>3</v>
-      </c>
-      <c r="G22" s="14">
-        <v>1.0787037037037038E-2</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="E22" s="12">
+        <v>3</v>
+      </c>
+      <c r="F22" s="22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="35">
+        <v>1.0578703703703703E-2</v>
+      </c>
+      <c r="H22" s="14">
         <v>0.469658960586749</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>